--- a/to_buy/3400_2017_Inventory.xlsx
+++ b/to_buy/3400_2017_Inventory.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="232">
   <si>
     <t>Description</t>
   </si>
@@ -696,9 +696,6 @@
   </si>
   <si>
     <t>5V Battery</t>
-  </si>
-  <si>
-    <t>6 + (4 not tested)</t>
   </si>
   <si>
     <t>Other Items to Buy</t>
@@ -1143,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1450,7 +1447,7 @@
         <v>13</v>
       </c>
       <c r="E27">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1975,10 +1972,10 @@
         <v>152</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2463,7 +2460,7 @@
         <v>222</v>
       </c>
       <c r="B133" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D133">
         <v>8</v>
@@ -2477,10 +2474,10 @@
         <v>223</v>
       </c>
       <c r="B134" t="s">
-        <v>232</v>
-      </c>
-      <c r="D134" t="s">
-        <v>224</v>
+        <v>231</v>
+      </c>
+      <c r="D134">
+        <v>6</v>
       </c>
       <c r="E134">
         <v>15</v>
@@ -2488,33 +2485,33 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
+        <v>225</v>
+      </c>
+      <c r="B137" t="s">
         <v>226</v>
-      </c>
-      <c r="B137" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B138" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
